--- a/data/input/Herbivory_LeafArea_BBC_PNG.xlsx
+++ b/data/input/Herbivory_LeafArea_BBC_PNG.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksam\Documents\GitHub\BBC_PNG\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB573964-F18F-417C-8A95-92120082C382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F792B4E0-B677-4F91-97C8-7F82080DF799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE6FB7B4-4BD9-4C3A-9DAE-776614CE67D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$119</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1582,12 +1585,14 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="13" width="11.77734375" customWidth="1"/>
+    <col min="9" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2934,10 +2939,10 @@
         <v>21</v>
       </c>
       <c r="K33">
-        <v>7.6289794740000003</v>
+        <v>3.9093950730000002</v>
       </c>
       <c r="L33">
-        <v>7.628979474E-2</v>
+        <v>3.909395073E-2</v>
       </c>
       <c r="M33">
         <v>0.89223284369381084</v>
@@ -2975,10 +2980,10 @@
         <v>31</v>
       </c>
       <c r="K34">
-        <v>7.574898567</v>
+        <v>3.2769744520000001</v>
       </c>
       <c r="L34">
-        <v>7.5748985670000005E-2</v>
+        <v>3.2769744520000005E-2</v>
       </c>
       <c r="M34">
         <v>1.8959252046973829</v>
@@ -3098,10 +3103,10 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>10.12069793</v>
+        <v>1.12069793</v>
       </c>
       <c r="L37">
-        <v>0.1012069793</v>
+        <v>1.012069793E-2</v>
       </c>
       <c r="M37">
         <v>1.5984963403625159</v>
@@ -3139,10 +3144,10 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>7.0802835179999999</v>
+        <v>2.3253822550000001</v>
       </c>
       <c r="L38">
-        <v>7.0802835179999996E-2</v>
+        <v>2.3253822550000001E-2</v>
       </c>
       <c r="M38">
         <v>0.70571177832858589</v>
@@ -3713,10 +3718,10 @@
         <v>48</v>
       </c>
       <c r="K52">
-        <v>2.3253822550000001</v>
+        <v>7.0802835179999999</v>
       </c>
       <c r="L52">
-        <v>2.3253822550000001E-2</v>
+        <v>7.0802835179999996E-2</v>
       </c>
       <c r="M52">
         <v>0.8776151318310762</v>
@@ -3918,10 +3923,10 @@
         <v>48</v>
       </c>
       <c r="K57">
-        <v>3.9093950730000002</v>
+        <v>7.6289794740000003</v>
       </c>
       <c r="L57">
-        <v>3.909395073E-2</v>
+        <v>7.628979474E-2</v>
       </c>
       <c r="M57">
         <v>1.0698820946462786</v>
@@ -3959,10 +3964,10 @@
         <v>48</v>
       </c>
       <c r="K58">
-        <v>3.2769744520000001</v>
+        <v>7.574898567</v>
       </c>
       <c r="L58">
-        <v>3.2769744520000005E-2</v>
+        <v>7.5748985670000005E-2</v>
       </c>
       <c r="M58">
         <v>0.71427235529186928</v>
@@ -6470,6 +6475,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M119" xr:uid="{292751DB-5A57-41AE-93C4-DD9F8A7EB80F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>